--- a/the_real_thing/FMBN_5/Excel_text_files_v5/Studies.xlsx
+++ b/the_real_thing/FMBN_5/Excel_text_files_v5/Studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenio/Library/CloudStorage/GoogleDrive-eugenio.parente@unibas.it/My Drive/FMBN/FMBNv5/FMBN_5_1_1/FMBN5_1_1_140625/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/dati_EP_1/FMBN/FMBNv5/FMBN_5_1_2/FMBN_5_1_2_150925/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CC086D0-7938-1747-BD06-730C258EEE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFDB2B7-22CA-4F42-A435-1762BAD97F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{B0C97AA0-27AF-A442-80A6-2B1C489B85C3}"/>
+    <workbookView xWindow="5620" yWindow="1260" windowWidth="26040" windowHeight="14940" xr2:uid="{586266D1-C6A7-F54C-B9B2-77F8338C4AE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7507" uniqueCount="3660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7557" uniqueCount="3686">
   <si>
     <t>study</t>
   </si>
@@ -9448,7 +9448,16 @@
     <t>Effect of Lactiplantibacillus starter on the dynamics of bacterial and fungal microbiota of Oliva di Gaeta PDO table olives (cv. Itrana, (A01BQ))</t>
   </si>
   <si>
-    <t>Parente et al., unpublished</t>
+    <t>10.1016/j.ijfoodmicro.2025.111344</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2025.111344</t>
+  </si>
+  <si>
+    <t>Ricciardi et al., 2025</t>
+  </si>
+  <si>
+    <t>Ricciardi, A., López, F.N.A., Giavalisco, M., Pietrafesa, R., Parente, E., 2025. Determining the core bacterial and fungal genera in table olive fermentations. Int. J. Food Microbiol. 442, 111344. https://doi.org/10.1016/j.ijfoodmicro.2025.111344</t>
   </si>
   <si>
     <t>ITS3F, 341Fm</t>
@@ -11015,6 +11024,75 @@
   </si>
   <si>
     <t>ranastasiou@aua.gr</t>
+  </si>
+  <si>
+    <t>ST301</t>
+  </si>
+  <si>
+    <t>SILVA v138.2 + UNITEgr190225</t>
+  </si>
+  <si>
+    <t>SRP551679</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/study/?acc=SRP551679&amp;go=go</t>
+  </si>
+  <si>
+    <t>PRJNA1197529</t>
+  </si>
+  <si>
+    <t>Bacterial and fungal diversity in black olives (A01BP) harvested from different regions in Greece</t>
+  </si>
+  <si>
+    <t>10.1016/j.ijfoodmicro.2025.111332</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijfoodmicro.2025.111332</t>
+  </si>
+  <si>
+    <t>Ferrocino, I., Buzzanca, D., Pagiati, L., Kazou, M., Georgalaki, M., Hatzopoulos, I., Tsakalidou, E., 2025. The microbial terroir of the Greek olive varieties. Int. J. Food Microbiol. 441, 111332. https://doi.org/10.1016/j.ijfoodmicro.2025.111332</t>
+  </si>
+  <si>
+    <t>Georgalaki</t>
+  </si>
+  <si>
+    <t>mgeor@aua.gr</t>
+  </si>
+  <si>
+    <t>ITS1F and 27F</t>
+  </si>
+  <si>
+    <t>ITS2 and 519R</t>
+  </si>
+  <si>
+    <t>ST302</t>
+  </si>
+  <si>
+    <t>SRP602889</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/study/?acc=SRP602889&amp;go=go</t>
+  </si>
+  <si>
+    <t>PRJNA1292811</t>
+  </si>
+  <si>
+    <t>Bacterial and fungal diversity in table olives (A01BQ) from Italy, Greece, Spain, Cyprus, Peru, Egypt</t>
+  </si>
+  <si>
+    <t>Parente et al., 2025</t>
+  </si>
+  <si>
+    <t>Parente, E., Ricciardi, A., Lavanga, E., Hidalgo, M., De Vivo, A., Pietrafesa, R., Labella, M. G., De Filippis, F. 2025. An overview of microbial communities of table olive varieties produced in Italy: the METAOlive project. Proceedings of the International congress “Advances in the microbiology of table olives”, Università degli Studi della Basilicata, Matera, 1-2/9/2025, pp 12-14</t>
+  </si>
+  <si>
+    <t>Italy, Greece, Spain, Cyprus, Egypt, Peru</t>
+  </si>
+  <si>
+    <t>ITS3F and Bakt_341F_Nov</t>
+  </si>
+  <si>
+    <t>ITS4R and Bakt_805R_Nov</t>
   </si>
 </sst>
 </file>
@@ -11365,17 +11443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24033B0E-DF7F-2B46-98CD-FEED4F3E0D28}">
-  <dimension ref="A1:AE301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E273D3-1052-C241-89C3-FCEFDD7F5310}">
+  <dimension ref="A1:AE303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection sqref="A1:AE1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="Q302" sqref="Q302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="31" width="13.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -35363,19 +35438,19 @@
         <v>3136</v>
       </c>
       <c r="S254" t="s">
-        <v>226</v>
+        <v>3137</v>
       </c>
       <c r="T254" t="s">
-        <v>2616</v>
+        <v>3138</v>
       </c>
       <c r="U254" t="s">
-        <v>3137</v>
+        <v>3139</v>
       </c>
       <c r="V254">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="W254" t="s">
-        <v>3137</v>
+        <v>3140</v>
       </c>
       <c r="X254" t="s">
         <v>65</v>
@@ -35390,10 +35465,10 @@
         <v>660</v>
       </c>
       <c r="AB254" t="s">
-        <v>3138</v>
+        <v>3141</v>
       </c>
       <c r="AC254" t="s">
-        <v>3139</v>
+        <v>3142</v>
       </c>
       <c r="AD254" t="b">
         <v>1</v>
@@ -35407,7 +35482,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>3140</v>
+        <v>3143</v>
       </c>
       <c r="C255" t="s">
         <v>1096</v>
@@ -35425,7 +35500,7 @@
         <v>307</v>
       </c>
       <c r="H255" t="s">
-        <v>3141</v>
+        <v>3144</v>
       </c>
       <c r="I255" t="s">
         <v>37</v>
@@ -35437,16 +35512,16 @@
         <v>39</v>
       </c>
       <c r="L255" t="s">
-        <v>3142</v>
+        <v>3145</v>
       </c>
       <c r="M255" t="s">
-        <v>3143</v>
+        <v>3146</v>
       </c>
       <c r="N255" t="s">
-        <v>3144</v>
+        <v>3147</v>
       </c>
       <c r="O255" t="s">
-        <v>3145</v>
+        <v>3148</v>
       </c>
       <c r="P255">
         <v>42</v>
@@ -35455,28 +35530,28 @@
         <v>1259</v>
       </c>
       <c r="R255" t="s">
-        <v>3146</v>
+        <v>3149</v>
       </c>
       <c r="S255" t="s">
-        <v>3147</v>
+        <v>3150</v>
       </c>
       <c r="T255" t="s">
-        <v>3148</v>
+        <v>3151</v>
       </c>
       <c r="U255" t="s">
-        <v>3149</v>
+        <v>3152</v>
       </c>
       <c r="V255">
         <v>2017</v>
       </c>
       <c r="W255" t="s">
-        <v>3150</v>
+        <v>3153</v>
       </c>
       <c r="X255" t="s">
-        <v>3151</v>
+        <v>3154</v>
       </c>
       <c r="Y255" t="s">
-        <v>3152</v>
+        <v>3155</v>
       </c>
       <c r="Z255" t="s">
         <v>52</v>
@@ -35485,10 +35560,10 @@
         <v>237</v>
       </c>
       <c r="AB255" t="s">
-        <v>3153</v>
+        <v>3156</v>
       </c>
       <c r="AC255" t="s">
-        <v>3154</v>
+        <v>3157</v>
       </c>
       <c r="AD255" t="b">
         <v>1</v>
@@ -35502,7 +35577,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>3155</v>
+        <v>3158</v>
       </c>
       <c r="C256" t="s">
         <v>1096</v>
@@ -35520,7 +35595,7 @@
         <v>443</v>
       </c>
       <c r="H256" t="s">
-        <v>3156</v>
+        <v>3159</v>
       </c>
       <c r="I256" t="s">
         <v>37</v>
@@ -35535,13 +35610,13 @@
         <v>877</v>
       </c>
       <c r="M256" t="s">
-        <v>3157</v>
+        <v>3160</v>
       </c>
       <c r="N256" t="s">
-        <v>3158</v>
+        <v>3161</v>
       </c>
       <c r="O256" t="s">
-        <v>3159</v>
+        <v>3162</v>
       </c>
       <c r="P256">
         <v>18</v>
@@ -35550,13 +35625,13 @@
         <v>212</v>
       </c>
       <c r="R256" t="s">
-        <v>3160</v>
+        <v>3163</v>
       </c>
       <c r="S256" t="s">
-        <v>3161</v>
+        <v>3164</v>
       </c>
       <c r="T256" t="s">
-        <v>3162</v>
+        <v>3165</v>
       </c>
       <c r="U256" t="s">
         <v>2951</v>
@@ -35565,10 +35640,10 @@
         <v>2023</v>
       </c>
       <c r="W256" t="s">
-        <v>3163</v>
+        <v>3166</v>
       </c>
       <c r="X256" t="s">
-        <v>3164</v>
+        <v>3167</v>
       </c>
       <c r="Y256" t="s">
         <v>2954</v>
@@ -35580,7 +35655,7 @@
         <v>247</v>
       </c>
       <c r="AB256" t="s">
-        <v>3165</v>
+        <v>3168</v>
       </c>
       <c r="AC256" t="s">
         <v>2956</v>
@@ -35597,7 +35672,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>3166</v>
+        <v>3169</v>
       </c>
       <c r="C257" t="s">
         <v>1096</v>
@@ -35615,7 +35690,7 @@
         <v>298</v>
       </c>
       <c r="H257" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
       <c r="I257" t="s">
         <v>37</v>
@@ -35627,16 +35702,16 @@
         <v>39</v>
       </c>
       <c r="L257" t="s">
-        <v>3142</v>
+        <v>3145</v>
       </c>
       <c r="M257" t="s">
-        <v>3168</v>
+        <v>3171</v>
       </c>
       <c r="N257" t="s">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="O257" t="s">
-        <v>3170</v>
+        <v>3173</v>
       </c>
       <c r="P257">
         <v>199</v>
@@ -35645,28 +35720,28 @@
         <v>1259</v>
       </c>
       <c r="R257" t="s">
-        <v>3171</v>
+        <v>3174</v>
       </c>
       <c r="S257" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
       <c r="T257" t="s">
-        <v>3173</v>
+        <v>3176</v>
       </c>
       <c r="U257" t="s">
-        <v>3174</v>
+        <v>3177</v>
       </c>
       <c r="V257">
         <v>2020</v>
       </c>
       <c r="W257" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="X257" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="Y257" t="s">
-        <v>3177</v>
+        <v>3180</v>
       </c>
       <c r="Z257" t="s">
         <v>774</v>
@@ -35692,7 +35767,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="C258" t="s">
         <v>1096</v>
@@ -35722,16 +35797,16 @@
         <v>39</v>
       </c>
       <c r="L258" t="s">
-        <v>3142</v>
+        <v>3145</v>
       </c>
       <c r="M258" t="s">
-        <v>3179</v>
+        <v>3182</v>
       </c>
       <c r="N258" t="s">
-        <v>3180</v>
+        <v>3183</v>
       </c>
       <c r="O258" t="s">
-        <v>3181</v>
+        <v>3184</v>
       </c>
       <c r="P258">
         <v>6</v>
@@ -35740,28 +35815,28 @@
         <v>1259</v>
       </c>
       <c r="R258" t="s">
-        <v>3182</v>
+        <v>3185</v>
       </c>
       <c r="S258" t="s">
-        <v>3183</v>
+        <v>3186</v>
       </c>
       <c r="T258" t="s">
-        <v>3184</v>
+        <v>3187</v>
       </c>
       <c r="U258" t="s">
-        <v>3185</v>
+        <v>3188</v>
       </c>
       <c r="V258">
         <v>2022</v>
       </c>
       <c r="W258" t="s">
-        <v>3186</v>
+        <v>3189</v>
       </c>
       <c r="X258" t="s">
-        <v>3187</v>
+        <v>3190</v>
       </c>
       <c r="Y258" t="s">
-        <v>3188</v>
+        <v>3191</v>
       </c>
       <c r="Z258" t="s">
         <v>648</v>
@@ -35787,7 +35862,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>3189</v>
+        <v>3192</v>
       </c>
       <c r="C259" t="s">
         <v>1096</v>
@@ -35820,13 +35895,13 @@
         <v>877</v>
       </c>
       <c r="M259" t="s">
-        <v>3190</v>
+        <v>3193</v>
       </c>
       <c r="N259" t="s">
-        <v>3191</v>
+        <v>3194</v>
       </c>
       <c r="O259" t="s">
-        <v>3192</v>
+        <v>3195</v>
       </c>
       <c r="P259">
         <v>12</v>
@@ -35835,22 +35910,22 @@
         <v>1259</v>
       </c>
       <c r="R259" t="s">
-        <v>3193</v>
+        <v>3196</v>
       </c>
       <c r="S259" t="s">
-        <v>3194</v>
+        <v>3197</v>
       </c>
       <c r="T259" t="s">
-        <v>3195</v>
+        <v>3198</v>
       </c>
       <c r="U259" t="s">
-        <v>3196</v>
+        <v>3199</v>
       </c>
       <c r="V259">
         <v>2022</v>
       </c>
       <c r="W259" t="s">
-        <v>3197</v>
+        <v>3200</v>
       </c>
       <c r="X259" t="s">
         <v>1265</v>
@@ -35859,7 +35934,7 @@
         <v>1266</v>
       </c>
       <c r="Z259" t="s">
-        <v>3198</v>
+        <v>3201</v>
       </c>
       <c r="AA259" t="s">
         <v>237</v>
@@ -35882,7 +35957,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>3199</v>
+        <v>3202</v>
       </c>
       <c r="C260" t="s">
         <v>1096</v>
@@ -35900,7 +35975,7 @@
         <v>191</v>
       </c>
       <c r="H260" t="s">
-        <v>3200</v>
+        <v>3203</v>
       </c>
       <c r="I260" t="s">
         <v>37</v>
@@ -35912,16 +35987,16 @@
         <v>39</v>
       </c>
       <c r="L260" t="s">
-        <v>3142</v>
+        <v>3145</v>
       </c>
       <c r="M260" t="s">
-        <v>3201</v>
+        <v>3204</v>
       </c>
       <c r="N260" t="s">
-        <v>3202</v>
+        <v>3205</v>
       </c>
       <c r="O260" t="s">
-        <v>3203</v>
+        <v>3206</v>
       </c>
       <c r="P260">
         <v>96</v>
@@ -35930,34 +36005,34 @@
         <v>1259</v>
       </c>
       <c r="R260" t="s">
-        <v>3204</v>
+        <v>3207</v>
       </c>
       <c r="S260" t="s">
-        <v>3205</v>
+        <v>3208</v>
       </c>
       <c r="T260" t="s">
-        <v>3206</v>
+        <v>3209</v>
       </c>
       <c r="U260" t="s">
-        <v>3207</v>
+        <v>3210</v>
       </c>
       <c r="V260">
         <v>2021</v>
       </c>
       <c r="W260" t="s">
-        <v>3208</v>
+        <v>3211</v>
       </c>
       <c r="X260" t="s">
-        <v>3209</v>
+        <v>3212</v>
       </c>
       <c r="Y260" t="s">
-        <v>3210</v>
+        <v>3213</v>
       </c>
       <c r="Z260" t="s">
         <v>774</v>
       </c>
       <c r="AA260" t="s">
-        <v>3211</v>
+        <v>3214</v>
       </c>
       <c r="AB260" t="s">
         <v>2941</v>
@@ -35977,7 +36052,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>3212</v>
+        <v>3215</v>
       </c>
       <c r="C261" t="s">
         <v>1096</v>
@@ -36007,16 +36082,16 @@
         <v>39</v>
       </c>
       <c r="L261" t="s">
-        <v>3142</v>
+        <v>3145</v>
       </c>
       <c r="M261" t="s">
-        <v>3213</v>
+        <v>3216</v>
       </c>
       <c r="N261" t="s">
-        <v>3214</v>
+        <v>3217</v>
       </c>
       <c r="O261" t="s">
-        <v>3215</v>
+        <v>3218</v>
       </c>
       <c r="P261">
         <v>41</v>
@@ -36025,7 +36100,7 @@
         <v>212</v>
       </c>
       <c r="R261" t="s">
-        <v>3216</v>
+        <v>3219</v>
       </c>
       <c r="S261" t="s">
         <v>1026</v>
@@ -36055,10 +36130,10 @@
         <v>1031</v>
       </c>
       <c r="AB261" t="s">
-        <v>3217</v>
+        <v>3220</v>
       </c>
       <c r="AC261" t="s">
-        <v>3218</v>
+        <v>3221</v>
       </c>
       <c r="AD261" t="b">
         <v>1</v>
@@ -36072,7 +36147,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>3219</v>
+        <v>3222</v>
       </c>
       <c r="C262" t="s">
         <v>1096</v>
@@ -36090,7 +36165,7 @@
         <v>160</v>
       </c>
       <c r="H262" t="s">
-        <v>3200</v>
+        <v>3203</v>
       </c>
       <c r="I262" t="s">
         <v>37</v>
@@ -36105,13 +36180,13 @@
         <v>877</v>
       </c>
       <c r="M262" t="s">
-        <v>3220</v>
+        <v>3223</v>
       </c>
       <c r="N262" t="s">
-        <v>3221</v>
+        <v>3224</v>
       </c>
       <c r="O262" t="s">
-        <v>3203</v>
+        <v>3206</v>
       </c>
       <c r="P262">
         <v>96</v>
@@ -36120,28 +36195,28 @@
         <v>1259</v>
       </c>
       <c r="R262" t="s">
-        <v>3222</v>
+        <v>3225</v>
       </c>
       <c r="S262" t="s">
-        <v>3223</v>
+        <v>3226</v>
       </c>
       <c r="T262" t="s">
-        <v>3224</v>
+        <v>3227</v>
       </c>
       <c r="U262" t="s">
-        <v>3207</v>
+        <v>3210</v>
       </c>
       <c r="V262">
         <v>2021</v>
       </c>
       <c r="W262" t="s">
-        <v>3225</v>
+        <v>3228</v>
       </c>
       <c r="X262" t="s">
-        <v>3209</v>
+        <v>3212</v>
       </c>
       <c r="Y262" t="s">
-        <v>3210</v>
+        <v>3213</v>
       </c>
       <c r="Z262" t="s">
         <v>774</v>
@@ -36150,10 +36225,10 @@
         <v>237</v>
       </c>
       <c r="AB262" t="s">
-        <v>3226</v>
+        <v>3229</v>
       </c>
       <c r="AC262" t="s">
-        <v>3227</v>
+        <v>3230</v>
       </c>
       <c r="AD262" t="b">
         <v>1</v>
@@ -36167,7 +36242,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>3228</v>
+        <v>3231</v>
       </c>
       <c r="C263" t="s">
         <v>1096</v>
@@ -36197,16 +36272,16 @@
         <v>39</v>
       </c>
       <c r="L263" t="s">
-        <v>3142</v>
+        <v>3145</v>
       </c>
       <c r="M263" t="s">
-        <v>3229</v>
+        <v>3232</v>
       </c>
       <c r="N263" t="s">
-        <v>3230</v>
+        <v>3233</v>
       </c>
       <c r="O263" t="s">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="P263">
         <v>30</v>
@@ -36215,7 +36290,7 @@
         <v>179</v>
       </c>
       <c r="R263" t="s">
-        <v>3232</v>
+        <v>3235</v>
       </c>
       <c r="S263" t="s">
         <v>1485</v>
@@ -36262,7 +36337,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>3233</v>
+        <v>3236</v>
       </c>
       <c r="C264" t="s">
         <v>1096</v>
@@ -36280,7 +36355,7 @@
         <v>422</v>
       </c>
       <c r="H264" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
       <c r="I264" t="s">
         <v>37</v>
@@ -36295,13 +36370,13 @@
         <v>40</v>
       </c>
       <c r="M264" t="s">
-        <v>3234</v>
+        <v>3237</v>
       </c>
       <c r="N264" t="s">
-        <v>3235</v>
+        <v>3238</v>
       </c>
       <c r="O264" t="s">
-        <v>3236</v>
+        <v>3239</v>
       </c>
       <c r="P264">
         <v>150</v>
@@ -36310,28 +36385,28 @@
         <v>1259</v>
       </c>
       <c r="R264" t="s">
-        <v>3237</v>
+        <v>3240</v>
       </c>
       <c r="S264" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
       <c r="T264" t="s">
-        <v>3173</v>
+        <v>3176</v>
       </c>
       <c r="U264" t="s">
-        <v>3174</v>
+        <v>3177</v>
       </c>
       <c r="V264">
         <v>2020</v>
       </c>
       <c r="W264" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="X264" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="Y264" t="s">
-        <v>3177</v>
+        <v>3180</v>
       </c>
       <c r="Z264" t="s">
         <v>774</v>
@@ -36357,7 +36432,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>3238</v>
+        <v>3241</v>
       </c>
       <c r="C265" t="s">
         <v>1096</v>
@@ -36369,13 +36444,13 @@
         <v>299</v>
       </c>
       <c r="F265" t="s">
-        <v>3239</v>
+        <v>3242</v>
       </c>
       <c r="G265">
         <v>437</v>
       </c>
       <c r="H265" t="s">
-        <v>3240</v>
+        <v>3243</v>
       </c>
       <c r="I265" t="s">
         <v>37</v>
@@ -36390,13 +36465,13 @@
         <v>40</v>
       </c>
       <c r="M265" t="s">
-        <v>3241</v>
+        <v>3244</v>
       </c>
       <c r="N265" t="s">
-        <v>3242</v>
+        <v>3245</v>
       </c>
       <c r="O265" t="s">
-        <v>3243</v>
+        <v>3246</v>
       </c>
       <c r="P265">
         <v>19</v>
@@ -36405,34 +36480,34 @@
         <v>1259</v>
       </c>
       <c r="R265" t="s">
-        <v>3244</v>
+        <v>3247</v>
       </c>
       <c r="S265" t="s">
-        <v>3245</v>
+        <v>3248</v>
       </c>
       <c r="T265" t="s">
-        <v>3246</v>
+        <v>3249</v>
       </c>
       <c r="U265" t="s">
-        <v>3247</v>
+        <v>3250</v>
       </c>
       <c r="V265">
         <v>2020</v>
       </c>
       <c r="W265" t="s">
-        <v>3248</v>
+        <v>3251</v>
       </c>
       <c r="X265" t="s">
-        <v>3249</v>
+        <v>3252</v>
       </c>
       <c r="Y265" t="s">
-        <v>3250</v>
+        <v>3253</v>
       </c>
       <c r="Z265" t="s">
         <v>648</v>
       </c>
       <c r="AA265" t="s">
-        <v>3211</v>
+        <v>3214</v>
       </c>
       <c r="AB265" t="s">
         <v>1067</v>
@@ -36452,7 +36527,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>3251</v>
+        <v>3254</v>
       </c>
       <c r="C266" t="s">
         <v>1096</v>
@@ -36470,7 +36545,7 @@
         <v>252</v>
       </c>
       <c r="H266" t="s">
-        <v>3252</v>
+        <v>3255</v>
       </c>
       <c r="I266" t="s">
         <v>37</v>
@@ -36485,13 +36560,13 @@
         <v>40</v>
       </c>
       <c r="M266" t="s">
-        <v>3253</v>
+        <v>3256</v>
       </c>
       <c r="N266" t="s">
-        <v>3254</v>
+        <v>3257</v>
       </c>
       <c r="O266" t="s">
-        <v>3255</v>
+        <v>3258</v>
       </c>
       <c r="P266">
         <v>217</v>
@@ -36500,40 +36575,40 @@
         <v>179</v>
       </c>
       <c r="R266" t="s">
-        <v>3256</v>
+        <v>3259</v>
       </c>
       <c r="S266" t="s">
-        <v>3257</v>
+        <v>3260</v>
       </c>
       <c r="T266" t="s">
-        <v>3258</v>
+        <v>3261</v>
       </c>
       <c r="U266" t="s">
-        <v>3259</v>
+        <v>3262</v>
       </c>
       <c r="V266">
         <v>2023</v>
       </c>
       <c r="W266" t="s">
-        <v>3260</v>
+        <v>3263</v>
       </c>
       <c r="X266" t="s">
-        <v>3261</v>
+        <v>3264</v>
       </c>
       <c r="Y266" t="s">
-        <v>3262</v>
+        <v>3265</v>
       </c>
       <c r="Z266" t="s">
         <v>968</v>
       </c>
       <c r="AA266" t="s">
-        <v>3263</v>
+        <v>3266</v>
       </c>
       <c r="AB266" t="s">
-        <v>3264</v>
+        <v>3267</v>
       </c>
       <c r="AC266" t="s">
-        <v>3265</v>
+        <v>3268</v>
       </c>
       <c r="AD266" t="b">
         <v>1</v>
@@ -36547,7 +36622,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>3266</v>
+        <v>3269</v>
       </c>
       <c r="C267" t="s">
         <v>1096</v>
@@ -36580,13 +36655,13 @@
         <v>40</v>
       </c>
       <c r="M267" t="s">
-        <v>3267</v>
+        <v>3270</v>
       </c>
       <c r="N267" t="s">
-        <v>3268</v>
+        <v>3271</v>
       </c>
       <c r="O267" t="s">
-        <v>3269</v>
+        <v>3272</v>
       </c>
       <c r="P267">
         <v>8</v>
@@ -36595,22 +36670,22 @@
         <v>44</v>
       </c>
       <c r="R267" t="s">
-        <v>3270</v>
+        <v>3273</v>
       </c>
       <c r="S267" t="s">
-        <v>3271</v>
+        <v>3274</v>
       </c>
       <c r="T267" t="s">
-        <v>3272</v>
+        <v>3275</v>
       </c>
       <c r="U267" t="s">
-        <v>3273</v>
+        <v>3276</v>
       </c>
       <c r="V267">
         <v>2023</v>
       </c>
       <c r="W267" t="s">
-        <v>3274</v>
+        <v>3277</v>
       </c>
       <c r="X267" t="s">
         <v>1465</v>
@@ -36642,7 +36717,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>3275</v>
+        <v>3278</v>
       </c>
       <c r="C268" t="s">
         <v>1096</v>
@@ -36660,7 +36735,7 @@
         <v>435</v>
       </c>
       <c r="H268" t="s">
-        <v>3276</v>
+        <v>3279</v>
       </c>
       <c r="I268" t="s">
         <v>37</v>
@@ -36675,13 +36750,13 @@
         <v>40</v>
       </c>
       <c r="M268" t="s">
-        <v>3277</v>
+        <v>3280</v>
       </c>
       <c r="N268" t="s">
-        <v>3278</v>
+        <v>3281</v>
       </c>
       <c r="O268" t="s">
-        <v>3279</v>
+        <v>3282</v>
       </c>
       <c r="P268">
         <v>54</v>
@@ -36690,34 +36765,34 @@
         <v>44</v>
       </c>
       <c r="R268" t="s">
-        <v>3280</v>
+        <v>3283</v>
       </c>
       <c r="S268" t="s">
-        <v>3281</v>
+        <v>3284</v>
       </c>
       <c r="T268" t="s">
-        <v>3282</v>
+        <v>3285</v>
       </c>
       <c r="U268" t="s">
-        <v>3283</v>
+        <v>3286</v>
       </c>
       <c r="V268">
         <v>2023</v>
       </c>
       <c r="W268" t="s">
-        <v>3284</v>
+        <v>3287</v>
       </c>
       <c r="X268" t="s">
-        <v>3285</v>
+        <v>3288</v>
       </c>
       <c r="Y268" t="s">
-        <v>3286</v>
+        <v>3289</v>
       </c>
       <c r="Z268" t="s">
         <v>52</v>
       </c>
       <c r="AA268" t="s">
-        <v>3287</v>
+        <v>3290</v>
       </c>
       <c r="AB268" t="s">
         <v>623</v>
@@ -36737,7 +36812,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>3288</v>
+        <v>3291</v>
       </c>
       <c r="C269" t="s">
         <v>1096</v>
@@ -36770,13 +36845,13 @@
         <v>40</v>
       </c>
       <c r="M269" t="s">
-        <v>3289</v>
+        <v>3292</v>
       </c>
       <c r="N269" t="s">
-        <v>3290</v>
+        <v>3293</v>
       </c>
       <c r="O269" t="s">
-        <v>3291</v>
+        <v>3294</v>
       </c>
       <c r="P269">
         <v>49</v>
@@ -36785,28 +36860,28 @@
         <v>44</v>
       </c>
       <c r="R269" t="s">
-        <v>3292</v>
+        <v>3295</v>
       </c>
       <c r="S269" t="s">
-        <v>3293</v>
+        <v>3296</v>
       </c>
       <c r="T269" t="s">
-        <v>3294</v>
+        <v>3297</v>
       </c>
       <c r="U269" t="s">
-        <v>3295</v>
+        <v>3298</v>
       </c>
       <c r="V269">
         <v>2023</v>
       </c>
       <c r="W269" t="s">
-        <v>3296</v>
+        <v>3299</v>
       </c>
       <c r="X269" t="s">
-        <v>3297</v>
+        <v>3300</v>
       </c>
       <c r="Y269" t="s">
-        <v>3298</v>
+        <v>3301</v>
       </c>
       <c r="Z269" t="s">
         <v>845</v>
@@ -36815,7 +36890,7 @@
         <v>237</v>
       </c>
       <c r="AB269" t="s">
-        <v>3299</v>
+        <v>3302</v>
       </c>
       <c r="AC269" t="s">
         <v>2563</v>
@@ -36832,7 +36907,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>3300</v>
+        <v>3303</v>
       </c>
       <c r="C270" t="s">
         <v>1096</v>
@@ -36865,13 +36940,13 @@
         <v>40</v>
       </c>
       <c r="M270" t="s">
-        <v>3301</v>
+        <v>3304</v>
       </c>
       <c r="N270" t="s">
-        <v>3302</v>
+        <v>3305</v>
       </c>
       <c r="O270" t="s">
-        <v>3303</v>
+        <v>3306</v>
       </c>
       <c r="P270">
         <v>17</v>
@@ -36880,22 +36955,22 @@
         <v>44</v>
       </c>
       <c r="R270" t="s">
-        <v>3304</v>
+        <v>3307</v>
       </c>
       <c r="S270" t="s">
-        <v>3305</v>
+        <v>3308</v>
       </c>
       <c r="T270" t="s">
-        <v>3306</v>
+        <v>3309</v>
       </c>
       <c r="U270" t="s">
-        <v>3307</v>
+        <v>3310</v>
       </c>
       <c r="V270">
         <v>2023</v>
       </c>
       <c r="W270" t="s">
-        <v>3308</v>
+        <v>3311</v>
       </c>
       <c r="X270" t="s">
         <v>1399</v>
@@ -36927,7 +37002,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>3309</v>
+        <v>3312</v>
       </c>
       <c r="C271" t="s">
         <v>1096</v>
@@ -36960,13 +37035,13 @@
         <v>40</v>
       </c>
       <c r="M271" t="s">
-        <v>3310</v>
+        <v>3313</v>
       </c>
       <c r="N271" t="s">
-        <v>3311</v>
+        <v>3314</v>
       </c>
       <c r="O271" t="s">
-        <v>3312</v>
+        <v>3315</v>
       </c>
       <c r="P271">
         <v>120</v>
@@ -36975,28 +37050,28 @@
         <v>179</v>
       </c>
       <c r="R271" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="S271" t="s">
-        <v>3314</v>
+        <v>3317</v>
       </c>
       <c r="T271" t="s">
-        <v>3315</v>
+        <v>3318</v>
       </c>
       <c r="U271" t="s">
-        <v>3316</v>
+        <v>3319</v>
       </c>
       <c r="V271">
         <v>2024</v>
       </c>
       <c r="W271" t="s">
-        <v>3317</v>
+        <v>3320</v>
       </c>
       <c r="X271" t="s">
         <v>966</v>
       </c>
       <c r="Y271" t="s">
-        <v>3318</v>
+        <v>3321</v>
       </c>
       <c r="Z271" t="s">
         <v>941</v>
@@ -37022,7 +37097,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>3319</v>
+        <v>3322</v>
       </c>
       <c r="C272" t="s">
         <v>1096</v>
@@ -37055,13 +37130,13 @@
         <v>40</v>
       </c>
       <c r="M272" t="s">
-        <v>3320</v>
+        <v>3323</v>
       </c>
       <c r="N272" t="s">
-        <v>3321</v>
+        <v>3324</v>
       </c>
       <c r="O272" t="s">
-        <v>3322</v>
+        <v>3325</v>
       </c>
       <c r="P272">
         <v>69</v>
@@ -37070,22 +37145,22 @@
         <v>179</v>
       </c>
       <c r="R272" t="s">
-        <v>3323</v>
+        <v>3326</v>
       </c>
       <c r="S272" t="s">
-        <v>3324</v>
+        <v>3327</v>
       </c>
       <c r="T272" t="s">
-        <v>3325</v>
+        <v>3328</v>
       </c>
       <c r="U272" t="s">
-        <v>3326</v>
+        <v>3329</v>
       </c>
       <c r="V272">
         <v>2023</v>
       </c>
       <c r="W272" t="s">
-        <v>3327</v>
+        <v>3330</v>
       </c>
       <c r="X272" t="s">
         <v>1079</v>
@@ -37117,7 +37192,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>3328</v>
+        <v>3331</v>
       </c>
       <c r="C273" t="s">
         <v>249</v>
@@ -37135,7 +37210,7 @@
         <v>372</v>
       </c>
       <c r="H273" t="s">
-        <v>3329</v>
+        <v>3332</v>
       </c>
       <c r="I273" t="s">
         <v>37</v>
@@ -37147,16 +37222,16 @@
         <v>39</v>
       </c>
       <c r="L273" t="s">
-        <v>3142</v>
+        <v>3145</v>
       </c>
       <c r="M273" t="s">
-        <v>3330</v>
+        <v>3333</v>
       </c>
       <c r="N273" t="s">
-        <v>3331</v>
+        <v>3334</v>
       </c>
       <c r="O273" t="s">
-        <v>3332</v>
+        <v>3335</v>
       </c>
       <c r="P273">
         <v>13</v>
@@ -37165,28 +37240,28 @@
         <v>267</v>
       </c>
       <c r="R273" t="s">
-        <v>3333</v>
+        <v>3336</v>
       </c>
       <c r="S273" t="s">
-        <v>3334</v>
+        <v>3337</v>
       </c>
       <c r="T273" t="s">
-        <v>3335</v>
+        <v>3338</v>
       </c>
       <c r="U273" t="s">
-        <v>3336</v>
+        <v>3339</v>
       </c>
       <c r="V273">
         <v>2024</v>
       </c>
       <c r="W273" t="s">
-        <v>3337</v>
+        <v>3340</v>
       </c>
       <c r="X273" t="s">
-        <v>3338</v>
+        <v>3341</v>
       </c>
       <c r="Y273" t="s">
-        <v>3339</v>
+        <v>3342</v>
       </c>
       <c r="Z273" t="s">
         <v>954</v>
@@ -37212,7 +37287,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>3340</v>
+        <v>3343</v>
       </c>
       <c r="C274" t="s">
         <v>249</v>
@@ -37230,7 +37305,7 @@
         <v>135</v>
       </c>
       <c r="H274" t="s">
-        <v>3341</v>
+        <v>3344</v>
       </c>
       <c r="I274" t="s">
         <v>37</v>
@@ -37242,16 +37317,16 @@
         <v>39</v>
       </c>
       <c r="L274" t="s">
-        <v>3142</v>
+        <v>3145</v>
       </c>
       <c r="M274" t="s">
-        <v>3342</v>
+        <v>3345</v>
       </c>
       <c r="N274" t="s">
-        <v>3343</v>
+        <v>3346</v>
       </c>
       <c r="O274" t="s">
-        <v>3344</v>
+        <v>3347</v>
       </c>
       <c r="P274">
         <v>10</v>
@@ -37260,22 +37335,22 @@
         <v>179</v>
       </c>
       <c r="R274" t="s">
-        <v>3345</v>
+        <v>3348</v>
       </c>
       <c r="S274" t="s">
-        <v>3346</v>
+        <v>3349</v>
       </c>
       <c r="T274" t="s">
-        <v>3347</v>
+        <v>3350</v>
       </c>
       <c r="U274" t="s">
-        <v>3348</v>
+        <v>3351</v>
       </c>
       <c r="V274">
         <v>2024</v>
       </c>
       <c r="W274" t="s">
-        <v>3349</v>
+        <v>3352</v>
       </c>
       <c r="X274" t="s">
         <v>829</v>
@@ -37287,7 +37362,7 @@
         <v>635</v>
       </c>
       <c r="AA274" t="s">
-        <v>3350</v>
+        <v>3353</v>
       </c>
       <c r="AB274" t="s">
         <v>2927</v>
@@ -37307,7 +37382,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>3351</v>
+        <v>3354</v>
       </c>
       <c r="C275" t="s">
         <v>249</v>
@@ -37325,7 +37400,7 @@
         <v>355</v>
       </c>
       <c r="H275" t="s">
-        <v>3352</v>
+        <v>3355</v>
       </c>
       <c r="I275" t="s">
         <v>37</v>
@@ -37337,16 +37412,16 @@
         <v>39</v>
       </c>
       <c r="L275" t="s">
-        <v>3142</v>
+        <v>3145</v>
       </c>
       <c r="M275" t="s">
-        <v>3353</v>
+        <v>3356</v>
       </c>
       <c r="N275" t="s">
-        <v>3354</v>
+        <v>3357</v>
       </c>
       <c r="O275" t="s">
-        <v>3355</v>
+        <v>3358</v>
       </c>
       <c r="P275">
         <v>26</v>
@@ -37355,28 +37430,28 @@
         <v>1259</v>
       </c>
       <c r="R275" t="s">
-        <v>3356</v>
+        <v>3359</v>
       </c>
       <c r="S275" t="s">
-        <v>3357</v>
+        <v>3360</v>
       </c>
       <c r="T275" t="s">
-        <v>3358</v>
+        <v>3361</v>
       </c>
       <c r="U275" t="s">
-        <v>3359</v>
+        <v>3362</v>
       </c>
       <c r="V275">
         <v>2024</v>
       </c>
       <c r="W275" t="s">
-        <v>3360</v>
+        <v>3363</v>
       </c>
       <c r="X275" t="s">
-        <v>3361</v>
+        <v>3364</v>
       </c>
       <c r="Y275" t="s">
-        <v>3362</v>
+        <v>3365</v>
       </c>
       <c r="Z275" t="s">
         <v>968</v>
@@ -37402,7 +37477,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>3363</v>
+        <v>3366</v>
       </c>
       <c r="C276" t="s">
         <v>249</v>
@@ -37432,16 +37507,16 @@
         <v>39</v>
       </c>
       <c r="L276" t="s">
-        <v>3142</v>
+        <v>3145</v>
       </c>
       <c r="M276" t="s">
-        <v>3364</v>
+        <v>3367</v>
       </c>
       <c r="N276" t="s">
-        <v>3365</v>
+        <v>3368</v>
       </c>
       <c r="O276" t="s">
-        <v>3366</v>
+        <v>3369</v>
       </c>
       <c r="P276">
         <v>21</v>
@@ -37450,22 +37525,22 @@
         <v>267</v>
       </c>
       <c r="R276" t="s">
-        <v>3367</v>
+        <v>3370</v>
       </c>
       <c r="S276" t="s">
-        <v>3368</v>
+        <v>3371</v>
       </c>
       <c r="T276" t="s">
-        <v>3369</v>
+        <v>3372</v>
       </c>
       <c r="U276" t="s">
-        <v>3370</v>
+        <v>3373</v>
       </c>
       <c r="V276">
         <v>2024</v>
       </c>
       <c r="W276" t="s">
-        <v>3371</v>
+        <v>3374</v>
       </c>
       <c r="X276" t="s">
         <v>1324</v>
@@ -37480,10 +37555,10 @@
         <v>237</v>
       </c>
       <c r="AB276" t="s">
-        <v>3372</v>
+        <v>3375</v>
       </c>
       <c r="AC276" t="s">
-        <v>3373</v>
+        <v>3376</v>
       </c>
       <c r="AD276" t="b">
         <v>1</v>
@@ -37497,7 +37572,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>3374</v>
+        <v>3377</v>
       </c>
       <c r="C277" t="s">
         <v>249</v>
@@ -37515,7 +37590,7 @@
         <v>457</v>
       </c>
       <c r="H277" t="s">
-        <v>3375</v>
+        <v>3378</v>
       </c>
       <c r="I277" t="s">
         <v>37</v>
@@ -37527,16 +37602,16 @@
         <v>39</v>
       </c>
       <c r="L277" t="s">
-        <v>3142</v>
+        <v>3145</v>
       </c>
       <c r="M277" t="s">
-        <v>3376</v>
+        <v>3379</v>
       </c>
       <c r="N277" t="s">
-        <v>3377</v>
+        <v>3380</v>
       </c>
       <c r="O277" t="s">
-        <v>3378</v>
+        <v>3381</v>
       </c>
       <c r="P277">
         <v>84</v>
@@ -37545,28 +37620,28 @@
         <v>221</v>
       </c>
       <c r="R277" t="s">
-        <v>3379</v>
+        <v>3382</v>
       </c>
       <c r="S277" t="s">
-        <v>3380</v>
+        <v>3383</v>
       </c>
       <c r="T277" t="s">
-        <v>3381</v>
+        <v>3384</v>
       </c>
       <c r="U277" t="s">
-        <v>3382</v>
+        <v>3385</v>
       </c>
       <c r="V277">
         <v>2023</v>
       </c>
       <c r="W277" t="s">
-        <v>3383</v>
+        <v>3386</v>
       </c>
       <c r="X277" t="s">
         <v>772</v>
       </c>
       <c r="Y277" t="s">
-        <v>3384</v>
+        <v>3387</v>
       </c>
       <c r="Z277" t="s">
         <v>941</v>
@@ -37575,10 +37650,10 @@
         <v>237</v>
       </c>
       <c r="AB277" t="s">
-        <v>3385</v>
+        <v>3388</v>
       </c>
       <c r="AC277" t="s">
-        <v>3386</v>
+        <v>3389</v>
       </c>
       <c r="AD277" t="b">
         <v>1</v>
@@ -37592,7 +37667,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>3387</v>
+        <v>3390</v>
       </c>
       <c r="C278" t="s">
         <v>249</v>
@@ -37610,7 +37685,7 @@
         <v>499</v>
       </c>
       <c r="H278" t="s">
-        <v>3388</v>
+        <v>3391</v>
       </c>
       <c r="I278" t="s">
         <v>37</v>
@@ -37625,13 +37700,13 @@
         <v>2579</v>
       </c>
       <c r="M278" t="s">
-        <v>3389</v>
+        <v>3392</v>
       </c>
       <c r="N278" t="s">
-        <v>3390</v>
+        <v>3393</v>
       </c>
       <c r="O278" t="s">
-        <v>3391</v>
+        <v>3394</v>
       </c>
       <c r="P278">
         <v>18</v>
@@ -37640,28 +37715,28 @@
         <v>1259</v>
       </c>
       <c r="R278" t="s">
-        <v>3392</v>
+        <v>3395</v>
       </c>
       <c r="S278" t="s">
-        <v>3393</v>
+        <v>3396</v>
       </c>
       <c r="T278" t="s">
-        <v>3394</v>
+        <v>3397</v>
       </c>
       <c r="U278" t="s">
-        <v>3395</v>
+        <v>3398</v>
       </c>
       <c r="V278">
         <v>2023</v>
       </c>
       <c r="W278" t="s">
-        <v>3396</v>
+        <v>3399</v>
       </c>
       <c r="X278" t="s">
-        <v>3397</v>
+        <v>3400</v>
       </c>
       <c r="Y278" t="s">
-        <v>3398</v>
+        <v>3401</v>
       </c>
       <c r="Z278" t="s">
         <v>746</v>
@@ -37670,10 +37745,10 @@
         <v>237</v>
       </c>
       <c r="AB278" t="s">
-        <v>3399</v>
+        <v>3402</v>
       </c>
       <c r="AC278" t="s">
-        <v>3399</v>
+        <v>3402</v>
       </c>
       <c r="AD278" t="b">
         <v>1</v>
@@ -37687,7 +37762,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>3400</v>
+        <v>3403</v>
       </c>
       <c r="C279" t="s">
         <v>249</v>
@@ -37705,7 +37780,7 @@
         <v>411</v>
       </c>
       <c r="H279" t="s">
-        <v>3401</v>
+        <v>3404</v>
       </c>
       <c r="I279" t="s">
         <v>37</v>
@@ -37720,13 +37795,13 @@
         <v>2579</v>
       </c>
       <c r="M279" t="s">
-        <v>3402</v>
+        <v>3405</v>
       </c>
       <c r="N279" t="s">
-        <v>3403</v>
+        <v>3406</v>
       </c>
       <c r="O279" t="s">
-        <v>3404</v>
+        <v>3407</v>
       </c>
       <c r="P279">
         <v>56</v>
@@ -37735,28 +37810,28 @@
         <v>179</v>
       </c>
       <c r="R279" t="s">
-        <v>3405</v>
+        <v>3408</v>
       </c>
       <c r="S279" t="s">
-        <v>3406</v>
+        <v>3409</v>
       </c>
       <c r="T279" t="s">
-        <v>3407</v>
+        <v>3410</v>
       </c>
       <c r="U279" t="s">
-        <v>3408</v>
+        <v>3411</v>
       </c>
       <c r="V279">
         <v>2024</v>
       </c>
       <c r="W279" t="s">
-        <v>3409</v>
+        <v>3412</v>
       </c>
       <c r="X279" t="s">
         <v>1787</v>
       </c>
       <c r="Y279" t="s">
-        <v>3410</v>
+        <v>3413</v>
       </c>
       <c r="Z279" t="s">
         <v>415</v>
@@ -37765,10 +37840,10 @@
         <v>237</v>
       </c>
       <c r="AB279" t="s">
-        <v>3411</v>
+        <v>3414</v>
       </c>
       <c r="AC279" t="s">
-        <v>3412</v>
+        <v>3415</v>
       </c>
       <c r="AD279" t="b">
         <v>1</v>
@@ -37782,16 +37857,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>3413</v>
+        <v>3416</v>
       </c>
       <c r="C280" t="s">
         <v>249</v>
       </c>
       <c r="D280" t="s">
-        <v>3414</v>
+        <v>3417</v>
       </c>
       <c r="E280" t="s">
-        <v>3415</v>
+        <v>3418</v>
       </c>
       <c r="F280" t="s">
         <v>300</v>
@@ -37812,16 +37887,16 @@
         <v>39</v>
       </c>
       <c r="L280" t="s">
-        <v>3416</v>
+        <v>3419</v>
       </c>
       <c r="M280" t="s">
-        <v>3417</v>
+        <v>3420</v>
       </c>
       <c r="N280" t="s">
-        <v>3418</v>
+        <v>3421</v>
       </c>
       <c r="O280" t="s">
-        <v>3419</v>
+        <v>3422</v>
       </c>
       <c r="P280">
         <v>33</v>
@@ -37830,22 +37905,22 @@
         <v>212</v>
       </c>
       <c r="R280" t="s">
-        <v>3420</v>
+        <v>3423</v>
       </c>
       <c r="S280" t="s">
-        <v>3421</v>
+        <v>3424</v>
       </c>
       <c r="T280" t="s">
-        <v>3422</v>
+        <v>3425</v>
       </c>
       <c r="U280" t="s">
-        <v>3423</v>
+        <v>3426</v>
       </c>
       <c r="V280">
         <v>2022</v>
       </c>
       <c r="W280" t="s">
-        <v>3424</v>
+        <v>3427</v>
       </c>
       <c r="X280" t="s">
         <v>2863</v>
@@ -37854,16 +37929,16 @@
         <v>2864</v>
       </c>
       <c r="Z280" t="s">
-        <v>3425</v>
+        <v>3428</v>
       </c>
       <c r="AA280" t="s">
         <v>237</v>
       </c>
       <c r="AB280" t="s">
-        <v>3426</v>
+        <v>3429</v>
       </c>
       <c r="AC280" t="s">
-        <v>3427</v>
+        <v>3430</v>
       </c>
       <c r="AD280" t="b">
         <v>1</v>
@@ -37877,13 +37952,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>3428</v>
+        <v>3431</v>
       </c>
       <c r="C281" t="s">
         <v>249</v>
       </c>
       <c r="D281" t="s">
-        <v>3429</v>
+        <v>3432</v>
       </c>
       <c r="E281" t="s">
         <v>1241</v>
@@ -37895,7 +37970,7 @@
         <v>375</v>
       </c>
       <c r="H281" t="s">
-        <v>3430</v>
+        <v>3433</v>
       </c>
       <c r="I281" t="s">
         <v>37</v>
@@ -37907,16 +37982,16 @@
         <v>39</v>
       </c>
       <c r="L281" t="s">
-        <v>3431</v>
+        <v>3434</v>
       </c>
       <c r="M281" t="s">
-        <v>3432</v>
+        <v>3435</v>
       </c>
       <c r="N281" t="s">
-        <v>3433</v>
+        <v>3436</v>
       </c>
       <c r="O281" t="s">
-        <v>3434</v>
+        <v>3437</v>
       </c>
       <c r="P281">
         <v>24</v>
@@ -37925,28 +38000,28 @@
         <v>212</v>
       </c>
       <c r="R281" t="s">
-        <v>3435</v>
+        <v>3438</v>
       </c>
       <c r="S281" t="s">
-        <v>3436</v>
+        <v>3439</v>
       </c>
       <c r="T281" t="s">
-        <v>3437</v>
+        <v>3440</v>
       </c>
       <c r="U281" t="s">
-        <v>3438</v>
+        <v>3441</v>
       </c>
       <c r="V281">
         <v>2024</v>
       </c>
       <c r="W281" t="s">
-        <v>3439</v>
+        <v>3442</v>
       </c>
       <c r="X281" t="s">
         <v>772</v>
       </c>
       <c r="Y281" t="s">
-        <v>3440</v>
+        <v>3443</v>
       </c>
       <c r="Z281" t="s">
         <v>941</v>
@@ -37955,10 +38030,10 @@
         <v>237</v>
       </c>
       <c r="AB281" t="s">
-        <v>3441</v>
+        <v>3444</v>
       </c>
       <c r="AC281" t="s">
-        <v>3442</v>
+        <v>3445</v>
       </c>
       <c r="AD281" t="b">
         <v>1</v>
@@ -37972,13 +38047,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>3443</v>
+        <v>3446</v>
       </c>
       <c r="C282" t="s">
         <v>249</v>
       </c>
       <c r="D282" t="s">
-        <v>3429</v>
+        <v>3432</v>
       </c>
       <c r="E282" t="s">
         <v>420</v>
@@ -37990,7 +38065,7 @@
         <v>383</v>
       </c>
       <c r="H282" t="s">
-        <v>3444</v>
+        <v>3447</v>
       </c>
       <c r="I282" t="s">
         <v>37</v>
@@ -38002,16 +38077,16 @@
         <v>39</v>
       </c>
       <c r="L282" t="s">
-        <v>3431</v>
+        <v>3434</v>
       </c>
       <c r="M282" t="s">
-        <v>3445</v>
+        <v>3448</v>
       </c>
       <c r="N282" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="O282" t="s">
-        <v>3447</v>
+        <v>3450</v>
       </c>
       <c r="P282">
         <v>4</v>
@@ -38020,28 +38095,28 @@
         <v>1259</v>
       </c>
       <c r="R282" t="s">
-        <v>3448</v>
+        <v>3451</v>
       </c>
       <c r="S282" t="s">
-        <v>3449</v>
+        <v>3452</v>
       </c>
       <c r="T282" t="s">
-        <v>3450</v>
+        <v>3453</v>
       </c>
       <c r="U282" t="s">
-        <v>3451</v>
+        <v>3454</v>
       </c>
       <c r="V282">
         <v>2023</v>
       </c>
       <c r="W282" t="s">
-        <v>3452</v>
+        <v>3455</v>
       </c>
       <c r="X282" t="s">
-        <v>3453</v>
+        <v>3456</v>
       </c>
       <c r="Y282" t="s">
-        <v>3454</v>
+        <v>3457</v>
       </c>
       <c r="Z282" t="s">
         <v>2033</v>
@@ -38050,10 +38125,10 @@
         <v>237</v>
       </c>
       <c r="AB282" t="s">
-        <v>3455</v>
+        <v>3458</v>
       </c>
       <c r="AC282" t="s">
-        <v>3456</v>
+        <v>3459</v>
       </c>
       <c r="AD282" t="b">
         <v>1</v>
@@ -38067,7 +38142,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>3457</v>
+        <v>3460</v>
       </c>
       <c r="C283" t="s">
         <v>249</v>
@@ -38097,40 +38172,40 @@
         <v>39</v>
       </c>
       <c r="L283" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="M283" t="s">
-        <v>3459</v>
+        <v>3462</v>
       </c>
       <c r="N283" t="s">
-        <v>3460</v>
+        <v>3463</v>
       </c>
       <c r="O283" t="s">
-        <v>3461</v>
+        <v>3464</v>
       </c>
       <c r="P283">
         <v>123</v>
       </c>
       <c r="Q283" t="s">
-        <v>3462</v>
+        <v>3465</v>
       </c>
       <c r="R283" t="s">
-        <v>3463</v>
+        <v>3466</v>
       </c>
       <c r="S283" t="s">
-        <v>3464</v>
+        <v>3467</v>
       </c>
       <c r="T283" t="s">
-        <v>3465</v>
+        <v>3468</v>
       </c>
       <c r="U283" t="s">
-        <v>3466</v>
+        <v>3469</v>
       </c>
       <c r="V283">
         <v>2024</v>
       </c>
       <c r="W283" t="s">
-        <v>3467</v>
+        <v>3470</v>
       </c>
       <c r="X283" t="s">
         <v>1079</v>
@@ -38162,7 +38237,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>3468</v>
+        <v>3471</v>
       </c>
       <c r="C284" t="s">
         <v>249</v>
@@ -38192,16 +38267,16 @@
         <v>39</v>
       </c>
       <c r="L284" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="M284" t="s">
-        <v>3469</v>
+        <v>3472</v>
       </c>
       <c r="N284" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="O284" t="s">
-        <v>3471</v>
+        <v>3474</v>
       </c>
       <c r="P284">
         <v>435</v>
@@ -38210,34 +38285,34 @@
         <v>179</v>
       </c>
       <c r="R284" t="s">
-        <v>3472</v>
+        <v>3475</v>
       </c>
       <c r="S284" t="s">
-        <v>3473</v>
+        <v>3476</v>
       </c>
       <c r="T284" t="s">
-        <v>3474</v>
+        <v>3477</v>
       </c>
       <c r="U284" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="V284">
         <v>2023</v>
       </c>
       <c r="W284" t="s">
-        <v>3476</v>
+        <v>3479</v>
       </c>
       <c r="X284" t="s">
         <v>413</v>
       </c>
       <c r="Y284" t="s">
-        <v>3477</v>
+        <v>3480</v>
       </c>
       <c r="Z284" t="s">
         <v>415</v>
       </c>
       <c r="AA284" t="s">
-        <v>3478</v>
+        <v>3481</v>
       </c>
       <c r="AB284" t="s">
         <v>1631</v>
@@ -38257,7 +38332,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="C285" t="s">
         <v>249</v>
@@ -38275,7 +38350,7 @@
         <v>272</v>
       </c>
       <c r="H285" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="I285" t="s">
         <v>37</v>
@@ -38287,16 +38362,16 @@
         <v>39</v>
       </c>
       <c r="L285" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="M285" t="s">
-        <v>3481</v>
+        <v>3484</v>
       </c>
       <c r="N285" t="s">
-        <v>3482</v>
+        <v>3485</v>
       </c>
       <c r="O285" t="s">
-        <v>3483</v>
+        <v>3486</v>
       </c>
       <c r="P285">
         <v>138</v>
@@ -38305,34 +38380,34 @@
         <v>179</v>
       </c>
       <c r="R285" t="s">
-        <v>3484</v>
+        <v>3487</v>
       </c>
       <c r="S285" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="T285" t="s">
-        <v>3486</v>
+        <v>3489</v>
       </c>
       <c r="U285" t="s">
-        <v>3487</v>
+        <v>3490</v>
       </c>
       <c r="V285">
         <v>2024</v>
       </c>
       <c r="W285" t="s">
-        <v>3488</v>
+        <v>3491</v>
       </c>
       <c r="X285" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="Y285" t="s">
-        <v>3490</v>
+        <v>3493</v>
       </c>
       <c r="Z285" t="s">
         <v>400</v>
       </c>
       <c r="AA285" t="s">
-        <v>3491</v>
+        <v>3494</v>
       </c>
       <c r="AB285" t="s">
         <v>1067</v>
@@ -38352,7 +38427,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>3492</v>
+        <v>3495</v>
       </c>
       <c r="C286" t="s">
         <v>249</v>
@@ -38370,7 +38445,7 @@
         <v>428</v>
       </c>
       <c r="H286" t="s">
-        <v>3493</v>
+        <v>3496</v>
       </c>
       <c r="I286" t="s">
         <v>37</v>
@@ -38382,16 +38457,16 @@
         <v>39</v>
       </c>
       <c r="L286" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="M286" t="s">
-        <v>3494</v>
+        <v>3497</v>
       </c>
       <c r="N286" t="s">
-        <v>3495</v>
+        <v>3498</v>
       </c>
       <c r="O286" t="s">
-        <v>3496</v>
+        <v>3499</v>
       </c>
       <c r="P286">
         <v>80</v>
@@ -38400,31 +38475,31 @@
         <v>179</v>
       </c>
       <c r="R286" t="s">
-        <v>3497</v>
+        <v>3500</v>
       </c>
       <c r="S286" t="s">
-        <v>3498</v>
+        <v>3501</v>
       </c>
       <c r="T286" t="s">
-        <v>3499</v>
+        <v>3502</v>
       </c>
       <c r="U286" t="s">
-        <v>3500</v>
+        <v>3503</v>
       </c>
       <c r="V286">
         <v>2023</v>
       </c>
       <c r="W286" t="s">
-        <v>3501</v>
+        <v>3504</v>
       </c>
       <c r="X286" t="s">
-        <v>3502</v>
+        <v>3505</v>
       </c>
       <c r="Y286" t="s">
-        <v>3503</v>
+        <v>3506</v>
       </c>
       <c r="Z286" t="s">
-        <v>3504</v>
+        <v>3507</v>
       </c>
       <c r="AA286" t="s">
         <v>686</v>
@@ -38447,7 +38522,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>3505</v>
+        <v>3508</v>
       </c>
       <c r="C287" t="s">
         <v>249</v>
@@ -38477,16 +38552,16 @@
         <v>39</v>
       </c>
       <c r="L287" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="M287" t="s">
-        <v>3506</v>
+        <v>3509</v>
       </c>
       <c r="N287" t="s">
-        <v>3507</v>
+        <v>3510</v>
       </c>
       <c r="O287" t="s">
-        <v>3508</v>
+        <v>3511</v>
       </c>
       <c r="P287">
         <v>80</v>
@@ -38495,25 +38570,25 @@
         <v>179</v>
       </c>
       <c r="R287" t="s">
-        <v>3509</v>
+        <v>3512</v>
       </c>
       <c r="S287" t="s">
-        <v>3510</v>
+        <v>3513</v>
       </c>
       <c r="T287" t="s">
-        <v>3511</v>
+        <v>3514</v>
       </c>
       <c r="U287" t="s">
-        <v>3466</v>
+        <v>3469</v>
       </c>
       <c r="V287">
         <v>2024</v>
       </c>
       <c r="W287" t="s">
-        <v>3512</v>
+        <v>3515</v>
       </c>
       <c r="X287" t="s">
-        <v>3513</v>
+        <v>3516</v>
       </c>
       <c r="Y287" t="s">
         <v>2518</v>
@@ -38522,7 +38597,7 @@
         <v>954</v>
       </c>
       <c r="AA287" t="s">
-        <v>3514</v>
+        <v>3517</v>
       </c>
       <c r="AB287" t="s">
         <v>609</v>
@@ -38542,7 +38617,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>3515</v>
+        <v>3518</v>
       </c>
       <c r="C288" t="s">
         <v>249</v>
@@ -38560,7 +38635,7 @@
         <v>270</v>
       </c>
       <c r="H288" t="s">
-        <v>3341</v>
+        <v>3344</v>
       </c>
       <c r="I288" t="s">
         <v>37</v>
@@ -38572,16 +38647,16 @@
         <v>39</v>
       </c>
       <c r="L288" t="s">
-        <v>3516</v>
+        <v>3519</v>
       </c>
       <c r="M288" t="s">
-        <v>3517</v>
+        <v>3520</v>
       </c>
       <c r="N288" t="s">
-        <v>3518</v>
+        <v>3521</v>
       </c>
       <c r="O288" t="s">
-        <v>3519</v>
+        <v>3522</v>
       </c>
       <c r="P288">
         <v>10</v>
@@ -38590,22 +38665,22 @@
         <v>179</v>
       </c>
       <c r="R288" t="s">
-        <v>3520</v>
+        <v>3523</v>
       </c>
       <c r="S288" t="s">
-        <v>3346</v>
+        <v>3349</v>
       </c>
       <c r="T288" t="s">
-        <v>3347</v>
+        <v>3350</v>
       </c>
       <c r="U288" t="s">
-        <v>3348</v>
+        <v>3351</v>
       </c>
       <c r="V288">
         <v>2024</v>
       </c>
       <c r="W288" t="s">
-        <v>3349</v>
+        <v>3352</v>
       </c>
       <c r="X288" t="s">
         <v>829</v>
@@ -38617,10 +38692,10 @@
         <v>635</v>
       </c>
       <c r="AA288" t="s">
-        <v>3350</v>
+        <v>3353</v>
       </c>
       <c r="AB288" t="s">
-        <v>3521</v>
+        <v>3524</v>
       </c>
       <c r="AC288" t="s">
         <v>610</v>
@@ -38637,7 +38712,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>3522</v>
+        <v>3525</v>
       </c>
       <c r="C289" t="s">
         <v>249</v>
@@ -38655,7 +38730,7 @@
         <v>441</v>
       </c>
       <c r="H289" t="s">
-        <v>3523</v>
+        <v>3526</v>
       </c>
       <c r="I289" t="s">
         <v>37</v>
@@ -38667,16 +38742,16 @@
         <v>39</v>
       </c>
       <c r="L289" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="M289" t="s">
-        <v>3524</v>
+        <v>3527</v>
       </c>
       <c r="N289" t="s">
-        <v>3525</v>
+        <v>3528</v>
       </c>
       <c r="O289" t="s">
-        <v>3526</v>
+        <v>3529</v>
       </c>
       <c r="P289">
         <v>111</v>
@@ -38685,40 +38760,40 @@
         <v>179</v>
       </c>
       <c r="R289" t="s">
-        <v>3527</v>
+        <v>3530</v>
       </c>
       <c r="S289" t="s">
-        <v>3528</v>
+        <v>3531</v>
       </c>
       <c r="T289" t="s">
-        <v>3529</v>
+        <v>3532</v>
       </c>
       <c r="U289" t="s">
-        <v>3530</v>
+        <v>3533</v>
       </c>
       <c r="V289">
         <v>2024</v>
       </c>
       <c r="W289" t="s">
-        <v>3531</v>
+        <v>3534</v>
       </c>
       <c r="X289" t="s">
         <v>2277</v>
       </c>
       <c r="Y289" t="s">
-        <v>3532</v>
+        <v>3535</v>
       </c>
       <c r="Z289" t="s">
         <v>941</v>
       </c>
       <c r="AA289" t="s">
-        <v>3491</v>
+        <v>3494</v>
       </c>
       <c r="AB289" t="s">
         <v>623</v>
       </c>
       <c r="AC289" t="s">
-        <v>3265</v>
+        <v>3268</v>
       </c>
       <c r="AD289" t="b">
         <v>0</v>
@@ -38732,7 +38807,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>3533</v>
+        <v>3536</v>
       </c>
       <c r="C290" t="s">
         <v>249</v>
@@ -38750,7 +38825,7 @@
         <v>419</v>
       </c>
       <c r="H290" t="s">
-        <v>3534</v>
+        <v>3537</v>
       </c>
       <c r="I290" t="s">
         <v>37</v>
@@ -38762,16 +38837,16 @@
         <v>39</v>
       </c>
       <c r="L290" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="M290" t="s">
-        <v>3535</v>
+        <v>3538</v>
       </c>
       <c r="N290" t="s">
-        <v>3536</v>
+        <v>3539</v>
       </c>
       <c r="O290" t="s">
-        <v>3537</v>
+        <v>3540</v>
       </c>
       <c r="P290">
         <v>48</v>
@@ -38780,40 +38855,40 @@
         <v>44</v>
       </c>
       <c r="R290" t="s">
-        <v>3538</v>
+        <v>3541</v>
       </c>
       <c r="S290" t="s">
-        <v>3539</v>
+        <v>3542</v>
       </c>
       <c r="T290" t="s">
-        <v>3540</v>
+        <v>3543</v>
       </c>
       <c r="U290" t="s">
-        <v>3541</v>
+        <v>3544</v>
       </c>
       <c r="V290">
         <v>2023</v>
       </c>
       <c r="W290" t="s">
-        <v>3542</v>
+        <v>3545</v>
       </c>
       <c r="X290" t="s">
-        <v>3543</v>
+        <v>3546</v>
       </c>
       <c r="Y290" t="s">
-        <v>3544</v>
+        <v>3547</v>
       </c>
       <c r="Z290" t="s">
         <v>968</v>
       </c>
       <c r="AA290" t="s">
-        <v>3491</v>
+        <v>3494</v>
       </c>
       <c r="AB290" t="s">
-        <v>3545</v>
+        <v>3548</v>
       </c>
       <c r="AC290" t="s">
-        <v>3546</v>
+        <v>3549</v>
       </c>
       <c r="AD290" t="b">
         <v>1</v>
@@ -38827,7 +38902,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>3547</v>
+        <v>3550</v>
       </c>
       <c r="C291" t="s">
         <v>249</v>
@@ -38845,7 +38920,7 @@
         <v>450</v>
       </c>
       <c r="H291" t="s">
-        <v>3548</v>
+        <v>3551</v>
       </c>
       <c r="I291" t="s">
         <v>37</v>
@@ -38857,16 +38932,16 @@
         <v>39</v>
       </c>
       <c r="L291" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="M291" t="s">
-        <v>3549</v>
+        <v>3552</v>
       </c>
       <c r="N291" t="s">
-        <v>3550</v>
+        <v>3553</v>
       </c>
       <c r="O291" t="s">
-        <v>3551</v>
+        <v>3554</v>
       </c>
       <c r="P291">
         <v>57</v>
@@ -38875,34 +38950,34 @@
         <v>44</v>
       </c>
       <c r="R291" t="s">
-        <v>3552</v>
+        <v>3555</v>
       </c>
       <c r="S291" t="s">
-        <v>3553</v>
+        <v>3556</v>
       </c>
       <c r="T291" t="s">
-        <v>3554</v>
+        <v>3557</v>
       </c>
       <c r="U291" t="s">
-        <v>3555</v>
+        <v>3558</v>
       </c>
       <c r="V291">
         <v>2023</v>
       </c>
       <c r="W291" t="s">
-        <v>3556</v>
+        <v>3559</v>
       </c>
       <c r="X291" t="s">
-        <v>3557</v>
+        <v>3560</v>
       </c>
       <c r="Y291" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="Z291" t="s">
         <v>52</v>
       </c>
       <c r="AA291" t="s">
-        <v>3491</v>
+        <v>3494</v>
       </c>
       <c r="AB291" t="s">
         <v>1067</v>
@@ -38922,7 +38997,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>3559</v>
+        <v>3562</v>
       </c>
       <c r="C292" t="s">
         <v>249</v>
@@ -38940,7 +39015,7 @@
         <v>427</v>
       </c>
       <c r="H292" t="s">
-        <v>3560</v>
+        <v>3563</v>
       </c>
       <c r="I292" t="s">
         <v>37</v>
@@ -38952,16 +39027,16 @@
         <v>39</v>
       </c>
       <c r="L292" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="M292" t="s">
-        <v>3561</v>
+        <v>3564</v>
       </c>
       <c r="N292" t="s">
-        <v>3562</v>
+        <v>3565</v>
       </c>
       <c r="O292" t="s">
-        <v>3563</v>
+        <v>3566</v>
       </c>
       <c r="P292">
         <v>12</v>
@@ -38970,34 +39045,34 @@
         <v>179</v>
       </c>
       <c r="R292" t="s">
-        <v>3564</v>
+        <v>3567</v>
       </c>
       <c r="S292" t="s">
-        <v>3565</v>
+        <v>3568</v>
       </c>
       <c r="T292" t="s">
-        <v>3566</v>
+        <v>3569</v>
       </c>
       <c r="U292" t="s">
-        <v>3567</v>
+        <v>3570</v>
       </c>
       <c r="V292">
         <v>2023</v>
       </c>
       <c r="W292" t="s">
-        <v>3568</v>
+        <v>3571</v>
       </c>
       <c r="X292" t="s">
-        <v>3569</v>
+        <v>3572</v>
       </c>
       <c r="Y292" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
       <c r="Z292" t="s">
         <v>2617</v>
       </c>
       <c r="AA292" t="s">
-        <v>3491</v>
+        <v>3494</v>
       </c>
       <c r="AB292" t="s">
         <v>1067</v>
@@ -39017,7 +39092,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>3571</v>
+        <v>3574</v>
       </c>
       <c r="C293" t="s">
         <v>249</v>
@@ -39047,16 +39122,16 @@
         <v>39</v>
       </c>
       <c r="L293" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="M293" t="s">
-        <v>3572</v>
+        <v>3575</v>
       </c>
       <c r="N293" t="s">
-        <v>3573</v>
+        <v>3576</v>
       </c>
       <c r="O293" t="s">
-        <v>3574</v>
+        <v>3577</v>
       </c>
       <c r="P293">
         <v>140</v>
@@ -39065,34 +39140,34 @@
         <v>44</v>
       </c>
       <c r="R293" t="s">
-        <v>3575</v>
+        <v>3578</v>
       </c>
       <c r="S293" t="s">
-        <v>3576</v>
+        <v>3579</v>
       </c>
       <c r="T293" t="s">
-        <v>3577</v>
+        <v>3580</v>
       </c>
       <c r="U293" t="s">
-        <v>3578</v>
+        <v>3581</v>
       </c>
       <c r="V293">
         <v>2023</v>
       </c>
       <c r="W293" t="s">
-        <v>3579</v>
+        <v>3582</v>
       </c>
       <c r="X293" t="s">
         <v>1312</v>
       </c>
       <c r="Y293" t="s">
-        <v>3580</v>
+        <v>3583</v>
       </c>
       <c r="Z293" t="s">
         <v>1555</v>
       </c>
       <c r="AA293" t="s">
-        <v>3581</v>
+        <v>3584</v>
       </c>
       <c r="AB293" t="s">
         <v>609</v>
@@ -39112,7 +39187,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>3582</v>
+        <v>3585</v>
       </c>
       <c r="C294" t="s">
         <v>249</v>
@@ -39142,16 +39217,16 @@
         <v>39</v>
       </c>
       <c r="L294" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="M294" t="s">
-        <v>3583</v>
+        <v>3586</v>
       </c>
       <c r="N294" t="s">
-        <v>3584</v>
+        <v>3587</v>
       </c>
       <c r="O294" t="s">
-        <v>3585</v>
+        <v>3588</v>
       </c>
       <c r="P294">
         <v>30</v>
@@ -39160,22 +39235,22 @@
         <v>212</v>
       </c>
       <c r="R294" t="s">
-        <v>3586</v>
+        <v>3589</v>
       </c>
       <c r="S294" t="s">
-        <v>3587</v>
+        <v>3590</v>
       </c>
       <c r="T294" t="s">
-        <v>3588</v>
+        <v>3591</v>
       </c>
       <c r="U294" t="s">
-        <v>3589</v>
+        <v>3592</v>
       </c>
       <c r="V294">
         <v>2024</v>
       </c>
       <c r="W294" t="s">
-        <v>3590</v>
+        <v>3593</v>
       </c>
       <c r="X294" t="s">
         <v>717</v>
@@ -39207,7 +39282,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>3591</v>
+        <v>3594</v>
       </c>
       <c r="C295" t="s">
         <v>249</v>
@@ -39225,7 +39300,7 @@
         <v>200</v>
       </c>
       <c r="H295" t="s">
-        <v>3592</v>
+        <v>3595</v>
       </c>
       <c r="I295" t="s">
         <v>37</v>
@@ -39237,16 +39312,16 @@
         <v>39</v>
       </c>
       <c r="L295" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="M295" t="s">
-        <v>3593</v>
+        <v>3596</v>
       </c>
       <c r="N295" t="s">
-        <v>3594</v>
+        <v>3597</v>
       </c>
       <c r="O295" t="s">
-        <v>3595</v>
+        <v>3598</v>
       </c>
       <c r="P295">
         <v>268</v>
@@ -39255,28 +39330,28 @@
         <v>44</v>
       </c>
       <c r="R295" t="s">
-        <v>3596</v>
+        <v>3599</v>
       </c>
       <c r="S295" t="s">
-        <v>3597</v>
+        <v>3600</v>
       </c>
       <c r="T295" t="s">
-        <v>3598</v>
+        <v>3601</v>
       </c>
       <c r="U295" t="s">
-        <v>3599</v>
+        <v>3602</v>
       </c>
       <c r="V295">
         <v>2023</v>
       </c>
       <c r="W295" t="s">
-        <v>3600</v>
+        <v>3603</v>
       </c>
       <c r="X295" t="s">
-        <v>3601</v>
+        <v>3604</v>
       </c>
       <c r="Y295" t="s">
-        <v>3602</v>
+        <v>3605</v>
       </c>
       <c r="Z295" t="s">
         <v>2033</v>
@@ -39288,7 +39363,7 @@
         <v>609</v>
       </c>
       <c r="AC295" t="s">
-        <v>3603</v>
+        <v>3606</v>
       </c>
       <c r="AD295" t="b">
         <v>1</v>
@@ -39302,7 +39377,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>3604</v>
+        <v>3607</v>
       </c>
       <c r="C296" t="s">
         <v>249</v>
@@ -39320,7 +39395,7 @@
         <v>429</v>
       </c>
       <c r="H296" t="s">
-        <v>3375</v>
+        <v>3378</v>
       </c>
       <c r="I296" t="s">
         <v>37</v>
@@ -39332,16 +39407,16 @@
         <v>39</v>
       </c>
       <c r="L296" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="M296" t="s">
-        <v>3605</v>
+        <v>3608</v>
       </c>
       <c r="N296" t="s">
-        <v>3606</v>
+        <v>3609</v>
       </c>
       <c r="O296" t="s">
-        <v>3607</v>
+        <v>3610</v>
       </c>
       <c r="P296">
         <v>84</v>
@@ -39350,28 +39425,28 @@
         <v>221</v>
       </c>
       <c r="R296" t="s">
-        <v>3608</v>
+        <v>3611</v>
       </c>
       <c r="S296" t="s">
-        <v>3380</v>
+        <v>3383</v>
       </c>
       <c r="T296" t="s">
-        <v>3381</v>
+        <v>3384</v>
       </c>
       <c r="U296" t="s">
-        <v>3382</v>
+        <v>3385</v>
       </c>
       <c r="V296">
         <v>2023</v>
       </c>
       <c r="W296" t="s">
-        <v>3383</v>
+        <v>3386</v>
       </c>
       <c r="X296" t="s">
         <v>772</v>
       </c>
       <c r="Y296" t="s">
-        <v>3384</v>
+        <v>3387</v>
       </c>
       <c r="Z296" t="s">
         <v>941</v>
@@ -39397,7 +39472,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>3609</v>
+        <v>3612</v>
       </c>
       <c r="C297" t="s">
         <v>249</v>
@@ -39415,7 +39490,7 @@
         <v>460</v>
       </c>
       <c r="H297" t="s">
-        <v>3610</v>
+        <v>3613</v>
       </c>
       <c r="I297" t="s">
         <v>37</v>
@@ -39427,16 +39502,16 @@
         <v>39</v>
       </c>
       <c r="L297" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="M297" t="s">
-        <v>3611</v>
+        <v>3614</v>
       </c>
       <c r="N297" t="s">
-        <v>3612</v>
+        <v>3615</v>
       </c>
       <c r="O297" t="s">
-        <v>3613</v>
+        <v>3616</v>
       </c>
       <c r="P297">
         <v>54</v>
@@ -39445,28 +39520,28 @@
         <v>212</v>
       </c>
       <c r="R297" t="s">
-        <v>3614</v>
+        <v>3617</v>
       </c>
       <c r="S297" t="s">
-        <v>3615</v>
+        <v>3618</v>
       </c>
       <c r="T297" t="s">
-        <v>3616</v>
+        <v>3619</v>
       </c>
       <c r="U297" t="s">
-        <v>3617</v>
+        <v>3620</v>
       </c>
       <c r="V297">
         <v>2022</v>
       </c>
       <c r="W297" t="s">
-        <v>3618</v>
+        <v>3621</v>
       </c>
       <c r="X297" t="s">
-        <v>3619</v>
+        <v>3622</v>
       </c>
       <c r="Y297" t="s">
-        <v>3620</v>
+        <v>3623</v>
       </c>
       <c r="Z297" t="s">
         <v>648</v>
@@ -39475,10 +39550,10 @@
         <v>660</v>
       </c>
       <c r="AB297" t="s">
-        <v>3621</v>
+        <v>3624</v>
       </c>
       <c r="AC297" t="s">
-        <v>3622</v>
+        <v>3625</v>
       </c>
       <c r="AD297" t="b">
         <v>0</v>
@@ -39492,7 +39567,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>3623</v>
+        <v>3626</v>
       </c>
       <c r="C298" t="s">
         <v>249</v>
@@ -39522,16 +39597,16 @@
         <v>39</v>
       </c>
       <c r="L298" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="M298" t="s">
-        <v>3624</v>
+        <v>3627</v>
       </c>
       <c r="N298" t="s">
-        <v>3625</v>
+        <v>3628</v>
       </c>
       <c r="O298" t="s">
-        <v>3585</v>
+        <v>3588</v>
       </c>
       <c r="P298">
         <v>12</v>
@@ -39540,28 +39615,28 @@
         <v>212</v>
       </c>
       <c r="R298" t="s">
-        <v>3626</v>
+        <v>3629</v>
       </c>
       <c r="S298" t="s">
-        <v>3627</v>
+        <v>3630</v>
       </c>
       <c r="T298" t="s">
-        <v>3628</v>
+        <v>3631</v>
       </c>
       <c r="U298" t="s">
-        <v>3629</v>
+        <v>3632</v>
       </c>
       <c r="V298">
         <v>2024</v>
       </c>
       <c r="W298" t="s">
-        <v>3630</v>
+        <v>3633</v>
       </c>
       <c r="X298" t="s">
-        <v>3631</v>
+        <v>3634</v>
       </c>
       <c r="Y298" t="s">
-        <v>3632</v>
+        <v>3635</v>
       </c>
       <c r="Z298" t="s">
         <v>941</v>
@@ -39587,7 +39662,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>3633</v>
+        <v>3636</v>
       </c>
       <c r="C299" t="s">
         <v>249</v>
@@ -39605,7 +39680,7 @@
         <v>429</v>
       </c>
       <c r="H299" t="s">
-        <v>3634</v>
+        <v>3637</v>
       </c>
       <c r="I299" t="s">
         <v>37</v>
@@ -39617,16 +39692,16 @@
         <v>39</v>
       </c>
       <c r="L299" t="s">
-        <v>3516</v>
+        <v>3461</v>
       </c>
       <c r="M299" t="s">
-        <v>3635</v>
+        <v>3638</v>
       </c>
       <c r="N299" t="s">
-        <v>3636</v>
+        <v>3639</v>
       </c>
       <c r="O299" t="s">
-        <v>3637</v>
+        <v>3640</v>
       </c>
       <c r="P299">
         <v>54</v>
@@ -39635,28 +39710,28 @@
         <v>179</v>
       </c>
       <c r="R299" t="s">
-        <v>3638</v>
+        <v>3641</v>
       </c>
       <c r="S299" t="s">
-        <v>3639</v>
+        <v>3642</v>
       </c>
       <c r="T299" t="s">
-        <v>3640</v>
+        <v>3643</v>
       </c>
       <c r="U299" t="s">
-        <v>3641</v>
+        <v>3644</v>
       </c>
       <c r="V299">
         <v>2024</v>
       </c>
       <c r="W299" t="s">
-        <v>3642</v>
+        <v>3645</v>
       </c>
       <c r="X299" t="s">
         <v>966</v>
       </c>
       <c r="Y299" t="s">
-        <v>3643</v>
+        <v>3646</v>
       </c>
       <c r="Z299" t="s">
         <v>941</v>
@@ -39682,7 +39757,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>3644</v>
+        <v>3647</v>
       </c>
       <c r="C300" t="s">
         <v>249</v>
@@ -39700,7 +39775,7 @@
         <v>427</v>
       </c>
       <c r="H300" t="s">
-        <v>3329</v>
+        <v>3332</v>
       </c>
       <c r="I300" t="s">
         <v>37</v>
@@ -39712,16 +39787,16 @@
         <v>39</v>
       </c>
       <c r="L300" t="s">
-        <v>3516</v>
+        <v>3461</v>
       </c>
       <c r="M300" t="s">
-        <v>3645</v>
+        <v>3648</v>
       </c>
       <c r="N300" t="s">
-        <v>3646</v>
+        <v>3649</v>
       </c>
       <c r="O300" t="s">
-        <v>3647</v>
+        <v>3650</v>
       </c>
       <c r="P300">
         <v>13</v>
@@ -39730,28 +39805,28 @@
         <v>267</v>
       </c>
       <c r="R300" t="s">
-        <v>3648</v>
+        <v>3651</v>
       </c>
       <c r="S300" t="s">
-        <v>3334</v>
+        <v>3337</v>
       </c>
       <c r="T300" t="s">
-        <v>3335</v>
+        <v>3338</v>
       </c>
       <c r="U300" t="s">
-        <v>3336</v>
+        <v>3339</v>
       </c>
       <c r="V300">
         <v>2024</v>
       </c>
       <c r="W300" t="s">
-        <v>3337</v>
+        <v>3340</v>
       </c>
       <c r="X300" t="s">
-        <v>3338</v>
+        <v>3341</v>
       </c>
       <c r="Y300" t="s">
-        <v>3339</v>
+        <v>3342</v>
       </c>
       <c r="Z300" t="s">
         <v>954</v>
@@ -39777,7 +39852,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>3649</v>
+        <v>3652</v>
       </c>
       <c r="C301" t="s">
         <v>249</v>
@@ -39807,16 +39882,16 @@
         <v>39</v>
       </c>
       <c r="L301" t="s">
-        <v>3142</v>
+        <v>3145</v>
       </c>
       <c r="M301" t="s">
-        <v>3650</v>
+        <v>3653</v>
       </c>
       <c r="N301" t="s">
-        <v>3651</v>
+        <v>3654</v>
       </c>
       <c r="O301" t="s">
-        <v>3652</v>
+        <v>3655</v>
       </c>
       <c r="P301">
         <v>74</v>
@@ -39825,28 +39900,28 @@
         <v>1259</v>
       </c>
       <c r="R301" t="s">
-        <v>3653</v>
+        <v>3656</v>
       </c>
       <c r="S301" t="s">
-        <v>3654</v>
+        <v>3657</v>
       </c>
       <c r="T301" t="s">
-        <v>3655</v>
+        <v>3658</v>
       </c>
       <c r="U301" t="s">
-        <v>3656</v>
+        <v>3659</v>
       </c>
       <c r="V301">
         <v>2025</v>
       </c>
       <c r="W301" t="s">
-        <v>3657</v>
+        <v>3660</v>
       </c>
       <c r="X301" t="s">
-        <v>3658</v>
+        <v>3661</v>
       </c>
       <c r="Y301" t="s">
-        <v>3659</v>
+        <v>3662</v>
       </c>
       <c r="Z301" t="s">
         <v>1018</v>
@@ -39864,6 +39939,196 @@
         <v>1</v>
       </c>
       <c r="AE301" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>3663</v>
+      </c>
+      <c r="C302" t="s">
+        <v>249</v>
+      </c>
+      <c r="D302" t="s">
+        <v>874</v>
+      </c>
+      <c r="E302" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F302" t="s">
+        <v>300</v>
+      </c>
+      <c r="G302">
+        <v>436</v>
+      </c>
+      <c r="H302" t="s">
+        <v>688</v>
+      </c>
+      <c r="I302" t="s">
+        <v>37</v>
+      </c>
+      <c r="J302" t="s">
+        <v>38</v>
+      </c>
+      <c r="K302" t="s">
+        <v>39</v>
+      </c>
+      <c r="L302" t="s">
+        <v>3664</v>
+      </c>
+      <c r="M302" t="s">
+        <v>3665</v>
+      </c>
+      <c r="N302" t="s">
+        <v>3666</v>
+      </c>
+      <c r="O302" t="s">
+        <v>3667</v>
+      </c>
+      <c r="P302">
+        <v>81</v>
+      </c>
+      <c r="Q302" t="s">
+        <v>212</v>
+      </c>
+      <c r="R302" t="s">
+        <v>3668</v>
+      </c>
+      <c r="S302" t="s">
+        <v>3669</v>
+      </c>
+      <c r="T302" t="s">
+        <v>3670</v>
+      </c>
+      <c r="U302" t="s">
+        <v>3659</v>
+      </c>
+      <c r="V302">
+        <v>2025</v>
+      </c>
+      <c r="W302" t="s">
+        <v>3671</v>
+      </c>
+      <c r="X302" t="s">
+        <v>3672</v>
+      </c>
+      <c r="Y302" t="s">
+        <v>3673</v>
+      </c>
+      <c r="Z302" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AA302" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB302" t="s">
+        <v>3674</v>
+      </c>
+      <c r="AC302" t="s">
+        <v>3675</v>
+      </c>
+      <c r="AD302" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE302" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>3676</v>
+      </c>
+      <c r="C303" t="s">
+        <v>249</v>
+      </c>
+      <c r="D303" t="s">
+        <v>874</v>
+      </c>
+      <c r="E303" t="s">
+        <v>875</v>
+      </c>
+      <c r="F303" t="s">
+        <v>3131</v>
+      </c>
+      <c r="G303">
+        <v>425</v>
+      </c>
+      <c r="H303" t="s">
+        <v>3132</v>
+      </c>
+      <c r="I303" t="s">
+        <v>37</v>
+      </c>
+      <c r="J303" t="s">
+        <v>38</v>
+      </c>
+      <c r="K303" t="s">
+        <v>39</v>
+      </c>
+      <c r="L303" t="s">
+        <v>3664</v>
+      </c>
+      <c r="M303" t="s">
+        <v>3677</v>
+      </c>
+      <c r="N303" t="s">
+        <v>3678</v>
+      </c>
+      <c r="O303" t="s">
+        <v>3679</v>
+      </c>
+      <c r="P303">
+        <v>340</v>
+      </c>
+      <c r="Q303" t="s">
+        <v>212</v>
+      </c>
+      <c r="R303" t="s">
+        <v>3680</v>
+      </c>
+      <c r="S303" t="s">
+        <v>2616</v>
+      </c>
+      <c r="T303" t="s">
+        <v>2616</v>
+      </c>
+      <c r="U303" t="s">
+        <v>3681</v>
+      </c>
+      <c r="V303">
+        <v>2025</v>
+      </c>
+      <c r="W303" t="s">
+        <v>3682</v>
+      </c>
+      <c r="X303" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y303" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z303" t="s">
+        <v>3683</v>
+      </c>
+      <c r="AA303" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB303" t="s">
+        <v>3684</v>
+      </c>
+      <c r="AC303" t="s">
+        <v>3685</v>
+      </c>
+      <c r="AD303" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE303" t="b">
         <v>1</v>
       </c>
     </row>
